--- a/Examples/model_txtl_test.xlsx
+++ b/Examples/model_txtl_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883BB5FE-4846-4929-AAD7-9471A428ADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322E63D-260C-45DA-B1A2-61CB4AF0F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Label</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>TX1;TL1</t>
+  </si>
+  <si>
+    <t>OBB;LC</t>
+  </si>
+  <si>
+    <t>kcat:10;Km1:50;Km2:50;K:4;maxC:90</t>
   </si>
 </sst>
 </file>
@@ -544,19 +550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D3CC-A58A-4494-9B3C-2BFA219AC7F3}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.578125" customWidth="1"/>
-    <col min="2" max="2" width="11.26171875" customWidth="1"/>
-    <col min="3" max="3" width="9.578125" customWidth="1"/>
-    <col min="4" max="4" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -579,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -590,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -601,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -612,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -623,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -634,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -645,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -656,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -667,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -678,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -692,7 +698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -706,7 +712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -730,22 +736,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.15625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.68359375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.83984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.41796875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +776,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -790,7 +796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -798,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -810,10 +816,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -847,7 +853,7 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Examples/model_txtl_test.xlsx
+++ b/Examples/model_txtl_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322E63D-260C-45DA-B1A2-61CB4AF0F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AD862-06DC-400B-9DA5-2779CBA32614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Label</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Mechanism</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Starting Conc</t>
-  </si>
-  <si>
     <t>Metabolite</t>
   </si>
   <si>
@@ -164,13 +158,25 @@
     <t>Mdh_DNA</t>
   </si>
   <si>
-    <t>TX1;TL1</t>
-  </si>
-  <si>
     <t>OBB;LC</t>
   </si>
   <si>
     <t>kcat:10;Km1:50;Km2:50;K:4;maxC:90</t>
+  </si>
+  <si>
+    <t>TX_MM</t>
+  </si>
+  <si>
+    <t>StartingConc</t>
+  </si>
+  <si>
+    <t>kcat:2;Km:4</t>
+  </si>
+  <si>
+    <t>kcat:2;Km:5</t>
+  </si>
+  <si>
+    <t>kcat:2;Km:6</t>
   </si>
 </sst>
 </file>
@@ -550,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D3CC-A58A-4494-9B3C-2BFA219AC7F3}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +566,7 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -567,30 +574,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -598,10 +605,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -609,10 +616,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -620,10 +627,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -631,10 +638,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -642,10 +649,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -653,10 +660,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -664,10 +671,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -675,10 +682,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -686,10 +693,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -697,13 +704,16 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -711,13 +721,16 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -725,8 +738,12 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -736,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -762,81 +779,81 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/model_txtl_test.xlsx
+++ b/Examples/model_txtl_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AD862-06DC-400B-9DA5-2779CBA32614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C51ECB-8E2E-45AC-B5DE-7EA48F0EB34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
@@ -170,13 +170,13 @@
     <t>StartingConc</t>
   </si>
   <si>
-    <t>kcat:2;Km:4</t>
-  </si>
-  <si>
     <t>kcat:2;Km:5</t>
   </si>
   <si>
     <t>kcat:2;Km:6</t>
+  </si>
+  <si>
+    <t>kcat:2;Km:4; RNAP:800</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/model_txtl_test.xlsx
+++ b/Examples/model_txtl_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C51ECB-8E2E-45AC-B5DE-7EA48F0EB34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4746BFEB-3058-4761-9774-6484713185CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5D4BE304-3618-4840-BED8-D27D0BA38927}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -128,18 +128,12 @@
     <t>MM</t>
   </si>
   <si>
-    <t>OBB</t>
-  </si>
-  <si>
     <t>kcat:10;Km:50</t>
   </si>
   <si>
     <t>Parameters</t>
   </si>
   <si>
-    <t>kcat:10;Km1:50;Km2:50;K:4</t>
-  </si>
-  <si>
     <t>Substrate</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>Mdh_DNA</t>
   </si>
   <si>
-    <t>OBB;LC</t>
-  </si>
-  <si>
-    <t>kcat:10;Km1:50;Km2:50;K:4;maxC:90</t>
-  </si>
-  <si>
     <t>TX_MM</t>
   </si>
   <si>
@@ -177,6 +165,18 @@
   </si>
   <si>
     <t>kcat:2;Km:4; RNAP:800</t>
+  </si>
+  <si>
+    <t>kcat:10;Km1:50;Km2:50;K:4;Ka:90;n:20;KiP1:90;KiP2:80</t>
+  </si>
+  <si>
+    <t>OBB;PI</t>
+  </si>
+  <si>
+    <t>kcat:10;Km1:50;Km2:50;K:4;KiP2:60</t>
+  </si>
+  <si>
+    <t>OBB;HC;PI</t>
   </si>
 </sst>
 </file>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D3CC-A58A-4494-9B3C-2BFA219AC7F3}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,13 +577,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -702,15 +702,15 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -719,15 +719,15 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -736,10 +736,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D5D16-1C04-425A-BBDB-1D98A70D3A08}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
     <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
@@ -779,16 +779,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -810,7 +810,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,10 +821,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -833,7 +833,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
